--- a/po_analysis_by_asin/B09QNQZMZR_po_data.xlsx
+++ b/po_analysis_by_asin/B09QNQZMZR_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -517,7 +518,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -535,6 +536,229 @@
       </c>
       <c r="B3" t="n">
         <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>44934.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>10</v>
+      </c>
+      <c r="C2" t="n">
+        <v>9.999999986452087</v>
+      </c>
+      <c r="D2" t="n">
+        <v>10.00000001222594</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>44941.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>10</v>
+      </c>
+      <c r="C3" t="n">
+        <v>9.999999987043511</v>
+      </c>
+      <c r="D3" t="n">
+        <v>10.00000001267165</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>44948.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>10</v>
+      </c>
+      <c r="C4" t="n">
+        <v>9.999999986316253</v>
+      </c>
+      <c r="D4" t="n">
+        <v>10.00000001193312</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>44955.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>10</v>
+      </c>
+      <c r="C5" t="n">
+        <v>9.999999988397263</v>
+      </c>
+      <c r="D5" t="n">
+        <v>10.00000001349635</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>44962.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>10</v>
+      </c>
+      <c r="C6" t="n">
+        <v>9.999999986907916</v>
+      </c>
+      <c r="D6" t="n">
+        <v>10.00000001220072</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>44969.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>10</v>
+      </c>
+      <c r="C7" t="n">
+        <v>9.999999979407844</v>
+      </c>
+      <c r="D7" t="n">
+        <v>10.00000001929287</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>44976.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>10</v>
+      </c>
+      <c r="C8" t="n">
+        <v>9.999999946089803</v>
+      </c>
+      <c r="D8" t="n">
+        <v>10.00000004959863</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>44983.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>10</v>
+      </c>
+      <c r="C9" t="n">
+        <v>9.999999896004777</v>
+      </c>
+      <c r="D9" t="n">
+        <v>10.00000009710475</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>44990.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>10</v>
+      </c>
+      <c r="C10" t="n">
+        <v>9.999999834396096</v>
+      </c>
+      <c r="D10" t="n">
+        <v>10.00000015626566</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>44997.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9.999999770174187</v>
+      </c>
+      <c r="D11" t="n">
+        <v>10.00000022801089</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45004.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>9.999999685601361</v>
+      </c>
+      <c r="D12" t="n">
+        <v>10.00000029850147</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45011.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>10</v>
+      </c>
+      <c r="C13" t="n">
+        <v>9.999999600159178</v>
+      </c>
+      <c r="D13" t="n">
+        <v>10.0000003746063</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45018.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>10</v>
+      </c>
+      <c r="C14" t="n">
+        <v>9.99999951975839</v>
+      </c>
+      <c r="D14" t="n">
+        <v>10.00000047101607</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B09QNQZMZR_po_data.xlsx
+++ b/po_analysis_by_asin/B09QNQZMZR_po_data.xlsx
@@ -549,7 +549,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -568,16 +568,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -586,12 +576,6 @@
       <c r="B2" t="n">
         <v>10</v>
       </c>
-      <c r="C2" t="n">
-        <v>9.999999986452087</v>
-      </c>
-      <c r="D2" t="n">
-        <v>10.00000001222594</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -600,12 +584,6 @@
       <c r="B3" t="n">
         <v>10</v>
       </c>
-      <c r="C3" t="n">
-        <v>9.999999987043511</v>
-      </c>
-      <c r="D3" t="n">
-        <v>10.00000001267165</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -614,12 +592,6 @@
       <c r="B4" t="n">
         <v>10</v>
       </c>
-      <c r="C4" t="n">
-        <v>9.999999986316253</v>
-      </c>
-      <c r="D4" t="n">
-        <v>10.00000001193312</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -628,12 +600,6 @@
       <c r="B5" t="n">
         <v>10</v>
       </c>
-      <c r="C5" t="n">
-        <v>9.999999988397263</v>
-      </c>
-      <c r="D5" t="n">
-        <v>10.00000001349635</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -642,12 +608,6 @@
       <c r="B6" t="n">
         <v>10</v>
       </c>
-      <c r="C6" t="n">
-        <v>9.999999986907916</v>
-      </c>
-      <c r="D6" t="n">
-        <v>10.00000001220072</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -656,12 +616,6 @@
       <c r="B7" t="n">
         <v>10</v>
       </c>
-      <c r="C7" t="n">
-        <v>9.999999979407844</v>
-      </c>
-      <c r="D7" t="n">
-        <v>10.00000001929287</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -670,12 +624,6 @@
       <c r="B8" t="n">
         <v>10</v>
       </c>
-      <c r="C8" t="n">
-        <v>9.999999946089803</v>
-      </c>
-      <c r="D8" t="n">
-        <v>10.00000004959863</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -684,12 +632,6 @@
       <c r="B9" t="n">
         <v>10</v>
       </c>
-      <c r="C9" t="n">
-        <v>9.999999896004777</v>
-      </c>
-      <c r="D9" t="n">
-        <v>10.00000009710475</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -698,12 +640,6 @@
       <c r="B10" t="n">
         <v>10</v>
       </c>
-      <c r="C10" t="n">
-        <v>9.999999834396096</v>
-      </c>
-      <c r="D10" t="n">
-        <v>10.00000015626566</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -712,12 +648,6 @@
       <c r="B11" t="n">
         <v>10</v>
       </c>
-      <c r="C11" t="n">
-        <v>9.999999770174187</v>
-      </c>
-      <c r="D11" t="n">
-        <v>10.00000022801089</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -726,12 +656,6 @@
       <c r="B12" t="n">
         <v>10</v>
       </c>
-      <c r="C12" t="n">
-        <v>9.999999685601361</v>
-      </c>
-      <c r="D12" t="n">
-        <v>10.00000029850147</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -740,12 +664,6 @@
       <c r="B13" t="n">
         <v>10</v>
       </c>
-      <c r="C13" t="n">
-        <v>9.999999600159178</v>
-      </c>
-      <c r="D13" t="n">
-        <v>10.0000003746063</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -753,12 +671,6 @@
       </c>
       <c r="B14" t="n">
         <v>10</v>
-      </c>
-      <c r="C14" t="n">
-        <v>9.99999951975839</v>
-      </c>
-      <c r="D14" t="n">
-        <v>10.00000047101607</v>
       </c>
     </row>
   </sheetData>
